--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
@@ -540,10 +540,10 @@
         <v>1.747724</v>
       </c>
       <c r="I2">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883126</v>
       </c>
       <c r="J2">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883125</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.27784033333333</v>
+        <v>9.506955</v>
       </c>
       <c r="N2">
-        <v>54.833521</v>
+        <v>28.520865</v>
       </c>
       <c r="O2">
-        <v>0.4115756354672912</v>
+        <v>0.2691767467564006</v>
       </c>
       <c r="P2">
-        <v>0.4115756354672912</v>
+        <v>0.2691767467564006</v>
       </c>
       <c r="Q2">
-        <v>10.64820673957822</v>
+        <v>5.53851114014</v>
       </c>
       <c r="R2">
-        <v>95.83386065620401</v>
+        <v>49.84660026126</v>
       </c>
       <c r="S2">
-        <v>0.3787478752560601</v>
+        <v>0.1985549053045635</v>
       </c>
       <c r="T2">
-        <v>0.3787478752560601</v>
+        <v>0.1985549053045635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1.747724</v>
       </c>
       <c r="I3">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883126</v>
       </c>
       <c r="J3">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883125</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>53.954562</v>
       </c>
       <c r="O3">
-        <v>0.4049782457250805</v>
+        <v>0.5092171458273274</v>
       </c>
       <c r="P3">
-        <v>0.4049782457250805</v>
+        <v>0.5092171458273272</v>
       </c>
       <c r="Q3">
         <v>10.47752032409867</v>
@@ -632,10 +632,10 @@
         <v>94.29768291688799</v>
       </c>
       <c r="S3">
-        <v>0.3726767011345369</v>
+        <v>0.3756177433138582</v>
       </c>
       <c r="T3">
-        <v>0.3726767011345369</v>
+        <v>0.3756177433138581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.747724</v>
       </c>
       <c r="I4">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883126</v>
       </c>
       <c r="J4">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883125</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.146737999999999</v>
+        <v>7.826824999999999</v>
       </c>
       <c r="N4">
-        <v>24.440214</v>
+        <v>23.480475</v>
       </c>
       <c r="O4">
-        <v>0.1834461188076284</v>
+        <v>0.2216061074162721</v>
       </c>
       <c r="P4">
-        <v>0.1834461188076284</v>
+        <v>0.2216061074162721</v>
       </c>
       <c r="Q4">
-        <v>4.746083174770666</v>
+        <v>4.559709965433333</v>
       </c>
       <c r="R4">
-        <v>42.714748572936</v>
+        <v>41.0373896889</v>
       </c>
       <c r="S4">
-        <v>0.1688142390729096</v>
+        <v>0.1634650102698909</v>
       </c>
       <c r="T4">
-        <v>0.1688142390729096</v>
+        <v>0.1634650102698909</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05049433333333334</v>
+        <v>0.2072096666666667</v>
       </c>
       <c r="H5">
-        <v>0.151483</v>
+        <v>0.621629</v>
       </c>
       <c r="I5">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="J5">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.27784033333333</v>
+        <v>9.506955</v>
       </c>
       <c r="N5">
-        <v>54.833521</v>
+        <v>28.520865</v>
       </c>
       <c r="O5">
-        <v>0.4115756354672912</v>
+        <v>0.2691767467564006</v>
       </c>
       <c r="P5">
-        <v>0.4115756354672912</v>
+        <v>0.2691767467564006</v>
       </c>
       <c r="Q5">
-        <v>0.9229273624047778</v>
+        <v>1.969932976565</v>
       </c>
       <c r="R5">
-        <v>8.306346261643002</v>
+        <v>17.729396789085</v>
       </c>
       <c r="S5">
-        <v>0.03282776021123115</v>
+        <v>0.07062184145183709</v>
       </c>
       <c r="T5">
-        <v>0.03282776021123115</v>
+        <v>0.07062184145183709</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05049433333333334</v>
+        <v>0.2072096666666667</v>
       </c>
       <c r="H6">
-        <v>0.151483</v>
+        <v>0.621629</v>
       </c>
       <c r="I6">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="J6">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>53.954562</v>
       </c>
       <c r="O6">
-        <v>0.4049782457250805</v>
+        <v>0.5092171458273274</v>
       </c>
       <c r="P6">
-        <v>0.4049782457250805</v>
+        <v>0.5092171458273272</v>
       </c>
       <c r="Q6">
-        <v>0.9081332128273333</v>
+        <v>3.726635602388666</v>
       </c>
       <c r="R6">
-        <v>8.173198915445999</v>
+        <v>33.539720421498</v>
       </c>
       <c r="S6">
-        <v>0.0323015445905435</v>
+        <v>0.1335994025134691</v>
       </c>
       <c r="T6">
-        <v>0.0323015445905435</v>
+        <v>0.1335994025134691</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05049433333333334</v>
+        <v>0.2072096666666667</v>
       </c>
       <c r="H7">
-        <v>0.151483</v>
+        <v>0.621629</v>
       </c>
       <c r="I7">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="J7">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.146737999999999</v>
+        <v>7.826824999999999</v>
       </c>
       <c r="N7">
-        <v>24.440214</v>
+        <v>23.480475</v>
       </c>
       <c r="O7">
-        <v>0.1834461188076284</v>
+        <v>0.2216061074162721</v>
       </c>
       <c r="P7">
-        <v>0.1834461188076284</v>
+        <v>0.2216061074162721</v>
       </c>
       <c r="Q7">
-        <v>0.4113641041513333</v>
+        <v>1.621793799308333</v>
       </c>
       <c r="R7">
-        <v>3.702276937362</v>
+        <v>14.596144193775</v>
       </c>
       <c r="S7">
-        <v>0.01463187973471874</v>
+        <v>0.05814109714638124</v>
       </c>
       <c r="T7">
-        <v>0.01463187973471874</v>
+        <v>0.05814109714638123</v>
       </c>
     </row>
   </sheetData>
